--- a/experiments/roberta/results/two_answer_two_context_concat.xlsx
+++ b/experiments/roberta/results/two_answer_two_context_concat.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iTA\experiments\roberta\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iLFQA\experiments\roberta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F93143-0320-4222-9214-64C229547B9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E370A82-9CA2-47C8-B9DE-64DC4BF47456}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="averages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="472">
   <si>
     <t>Question</t>
   </si>
@@ -1891,7 +1892,7 @@
     <t>It's not clear that the difference between genders must vary across age groups. It's clear that there are differences between genders within age groups, but not between them. The reason for this is not thoroughly understood, and scientists are still working on it. We have been told what the correct prediction was, When we look at infants, however, the opposite is true. Let's define infants to be babies who have been born to AGE 0. Here are the numbers in the population. You can see that male infants outnumbered female infants. As before, we can convert to percents out of the total numbers of infants. The resulting shows that in 2014, just over % of infants in the US were male. In fact, the proportion of boys newborns is slightly more than 1/2. The reason why for this to be true is that the reason for the difference in the theory of gender development is still being worked on, and there is still work on it. The plan now is to compare the numbers of women and the number of men at each age, for each of the two years. You have seen while there are more baby boys than baby girls There are more females than males overall</t>
   </si>
   <si>
-    <t>total average time:</t>
+    <t>total_time</t>
   </si>
 </sst>
 </file>
@@ -2234,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J119"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D116" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5958,43 +5959,76 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E117">
-        <f>AVERAGE(E2:E116)</f>
-        <v>0.15372523017551556</v>
-      </c>
-      <c r="F117">
-        <f t="shared" ref="F117:H117" si="0">AVERAGE(F2:F116)</f>
-        <v>0.26171817986861512</v>
-      </c>
-      <c r="G117">
-        <f t="shared" si="0"/>
-        <v>1.5186642066292104</v>
-      </c>
-      <c r="H117">
-        <f t="shared" si="0"/>
-        <v>8.2285454874453272</v>
-      </c>
-      <c r="I117">
-        <f>AVERAGE(I2:I116)</f>
-        <v>0.47847054982114651</v>
-      </c>
-      <c r="J117">
-        <f>AVERAGE(J2:J115)</f>
-        <v>72.888331595643734</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B119" s="1">
-        <f>SUM(E117:H117)</f>
-        <v>10.162653104118668</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E20915-5023-4B28-B551-F030352823B9}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>AVERAGE(Sheet1!E2:E116)</f>
+        <v>0.15372523017551556</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(Sheet1!F2:F116)</f>
+        <v>0.26171817986861512</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(Sheet1!G2:G116)</f>
+        <v>1.5186642066292104</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(Sheet1!H2:H116)</f>
+        <v>8.2285454874453272</v>
+      </c>
+      <c r="E2">
+        <f>SUM(A2:D2)</f>
+        <v>10.162653104118668</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(Sheet1!I2:I116)</f>
+        <v>0.47847054982114651</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(Sheet1!J2:J116)</f>
+        <v>72.888331595643734</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>